--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H2">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>1362.838184469714</v>
+        <v>2310.065827221296</v>
       </c>
       <c r="R2">
-        <v>1362.838184469714</v>
+        <v>20790.59244499166</v>
       </c>
       <c r="S2">
-        <v>0.0002595182638696244</v>
+        <v>0.0003930841263087062</v>
       </c>
       <c r="T2">
-        <v>0.0002595182638696244</v>
+        <v>0.0003930841263087062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H3">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>1450.66160815093</v>
+        <v>2434.894954726356</v>
       </c>
       <c r="R3">
-        <v>1450.66160815093</v>
+        <v>21914.0545925372</v>
       </c>
       <c r="S3">
-        <v>0.0002762420266028384</v>
+        <v>0.0004143252303261737</v>
       </c>
       <c r="T3">
-        <v>0.0002762420266028384</v>
+        <v>0.0004143252303261737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H4">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>935.4228376197508</v>
+        <v>1573.159094257388</v>
       </c>
       <c r="R4">
-        <v>935.4228376197508</v>
+        <v>14158.43184831649</v>
       </c>
       <c r="S4">
-        <v>0.0001781277583571184</v>
+        <v>0.0002676910159112631</v>
       </c>
       <c r="T4">
-        <v>0.0001781277583571184</v>
+        <v>0.0002676910159112631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H5">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>725.3067279517068</v>
+        <v>1227.024783697652</v>
       </c>
       <c r="R5">
-        <v>725.3067279517068</v>
+        <v>11043.22305327887</v>
       </c>
       <c r="S5">
-        <v>0.0001381164286090399</v>
+        <v>0.0002087923033947015</v>
       </c>
       <c r="T5">
-        <v>0.0001381164286090399</v>
+        <v>0.0002087923033947015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H6">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I6">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J6">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>479.4988903675601</v>
+        <v>842.8846010644399</v>
       </c>
       <c r="R6">
-        <v>479.4988903675601</v>
+        <v>7585.961409579959</v>
       </c>
       <c r="S6">
-        <v>9.130850674250821E-05</v>
+        <v>0.0001434264569798071</v>
       </c>
       <c r="T6">
-        <v>9.130850674250821E-05</v>
+        <v>0.0001434264569798071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H7">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>7469.277401714467</v>
+        <v>7742.689314452851</v>
       </c>
       <c r="R7">
-        <v>7469.277401714467</v>
+        <v>69684.20383007565</v>
       </c>
       <c r="S7">
-        <v>0.001422336067291659</v>
+        <v>0.001317507158708294</v>
       </c>
       <c r="T7">
-        <v>0.001422336067291659</v>
+        <v>0.001317507158708294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H8">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>7950.609317211497</v>
+        <v>8161.081353448764</v>
       </c>
       <c r="R8">
-        <v>7950.609317211497</v>
+        <v>73449.73218103888</v>
       </c>
       <c r="S8">
-        <v>0.001513993627578931</v>
+        <v>0.001388701350304581</v>
       </c>
       <c r="T8">
-        <v>0.001513993627578931</v>
+        <v>0.00138870135030458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H9">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>5126.751467416118</v>
+        <v>5272.785721302373</v>
       </c>
       <c r="R9">
-        <v>5126.751467416118</v>
+        <v>47455.07149172136</v>
       </c>
       <c r="S9">
-        <v>0.0009762609055693411</v>
+        <v>0.0008972248080758318</v>
       </c>
       <c r="T9">
-        <v>0.0009762609055693411</v>
+        <v>0.0008972248080758318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H10">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J10">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>3975.172705121352</v>
+        <v>4112.64110717245</v>
       </c>
       <c r="R10">
-        <v>3975.172705121352</v>
+        <v>37013.76996455204</v>
       </c>
       <c r="S10">
-        <v>0.000756971686566313</v>
+        <v>0.0006998129306032486</v>
       </c>
       <c r="T10">
-        <v>0.000756971686566313</v>
+        <v>0.0006998129306032485</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H11">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J11">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>2627.979071017268</v>
+        <v>2825.111525860128</v>
       </c>
       <c r="R11">
-        <v>2627.979071017268</v>
+        <v>25426.00373274115</v>
       </c>
       <c r="S11">
-        <v>0.0005004325339339401</v>
+        <v>0.0004807250437547821</v>
       </c>
       <c r="T11">
-        <v>0.0005004325339339401</v>
+        <v>0.000480725043754782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H12">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>1137628.162914332</v>
+        <v>1150565.354868915</v>
       </c>
       <c r="R12">
-        <v>1137628.162914332</v>
+        <v>10355088.19382024</v>
       </c>
       <c r="S12">
-        <v>0.2166326781367627</v>
+        <v>0.1957818569281785</v>
       </c>
       <c r="T12">
-        <v>0.2166326781367627</v>
+        <v>0.1957818569281785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H13">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>1210938.700644961</v>
+        <v>1212738.50495555</v>
       </c>
       <c r="R13">
-        <v>1210938.700644961</v>
+        <v>10914646.54459995</v>
       </c>
       <c r="S13">
-        <v>0.2305928266650374</v>
+        <v>0.2063613296400286</v>
       </c>
       <c r="T13">
-        <v>0.2305928266650374</v>
+        <v>0.2063613296400286</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H14">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I14">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J14">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>780843.5193819719</v>
+        <v>783537.1313754859</v>
       </c>
       <c r="R14">
-        <v>780843.5193819719</v>
+        <v>7051834.182379373</v>
       </c>
       <c r="S14">
-        <v>0.1486920140726068</v>
+        <v>0.1333278061117598</v>
       </c>
       <c r="T14">
-        <v>0.1486920140726068</v>
+        <v>0.1333278061117598</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H15">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I15">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J15">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>605449.2527960439</v>
+        <v>611139.3835846741</v>
       </c>
       <c r="R15">
-        <v>605449.2527960439</v>
+        <v>5500254.452262066</v>
       </c>
       <c r="S15">
-        <v>0.1152925862639581</v>
+        <v>0.1039923571953735</v>
       </c>
       <c r="T15">
-        <v>0.1152925862639581</v>
+        <v>0.1039923571953735</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H16">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I16">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J16">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>400261.3428244683</v>
+        <v>419812.2013275204</v>
       </c>
       <c r="R16">
-        <v>400261.3428244683</v>
+        <v>3778309.811947683</v>
       </c>
       <c r="S16">
-        <v>0.07621970822922661</v>
+        <v>0.07143584846283887</v>
       </c>
       <c r="T16">
-        <v>0.07621970822922661</v>
+        <v>0.07143584846283887</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H17">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>279597.2472188524</v>
+        <v>438465.568322444</v>
       </c>
       <c r="R17">
-        <v>279597.2472188524</v>
+        <v>3946190.114901996</v>
       </c>
       <c r="S17">
-        <v>0.05324226530180202</v>
+        <v>0.07460993224067435</v>
       </c>
       <c r="T17">
-        <v>0.05324226530180202</v>
+        <v>0.07460993224067435</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H18">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I18">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J18">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>297614.9310366546</v>
+        <v>462158.9512943647</v>
       </c>
       <c r="R18">
-        <v>297614.9310366546</v>
+        <v>4159430.561649282</v>
       </c>
       <c r="S18">
-        <v>0.05667328013293348</v>
+        <v>0.07864163239184187</v>
       </c>
       <c r="T18">
-        <v>0.05667328013293348</v>
+        <v>0.07864163239184187</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H19">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I19">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J19">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>191909.5409598438</v>
+        <v>298595.8617269779</v>
       </c>
       <c r="R19">
-        <v>191909.5409598438</v>
+        <v>2687362.755542801</v>
       </c>
       <c r="S19">
-        <v>0.03654434653905312</v>
+        <v>0.05080950163551353</v>
       </c>
       <c r="T19">
-        <v>0.03654434653905312</v>
+        <v>0.05080950163551354</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H20">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I20">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J20">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>148802.5261073222</v>
+        <v>232897.3108861004</v>
       </c>
       <c r="R20">
-        <v>148802.5261073222</v>
+        <v>2096075.797974904</v>
       </c>
       <c r="S20">
-        <v>0.02833569947984157</v>
+        <v>0.03963014165679874</v>
       </c>
       <c r="T20">
-        <v>0.02833569947984157</v>
+        <v>0.03963014165679874</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H21">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I21">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J21">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>98373.06535656685</v>
+        <v>159984.9975186668</v>
       </c>
       <c r="R21">
-        <v>98373.06535656685</v>
+        <v>1439864.977668002</v>
       </c>
       <c r="S21">
-        <v>0.01873267672112004</v>
+        <v>0.02722327746295054</v>
       </c>
       <c r="T21">
-        <v>0.01873267672112004</v>
+        <v>0.02722327746295054</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H22">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I22">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J22">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>18678.42864975956</v>
+        <v>19381.15825492971</v>
       </c>
       <c r="R22">
-        <v>18678.42864975956</v>
+        <v>174430.4242943674</v>
       </c>
       <c r="S22">
-        <v>0.003556837070047603</v>
+        <v>0.003297925786233448</v>
       </c>
       <c r="T22">
-        <v>0.003556837070047603</v>
+        <v>0.003297925786233448</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H23">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I23">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J23">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>19882.09579946265</v>
+        <v>20428.45874589039</v>
       </c>
       <c r="R23">
-        <v>19882.09579946265</v>
+        <v>183856.1287130135</v>
       </c>
       <c r="S23">
-        <v>0.003786045212677824</v>
+        <v>0.003476135945277771</v>
       </c>
       <c r="T23">
-        <v>0.003786045212677824</v>
+        <v>0.003476135945277771</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H24">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I24">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J24">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>12820.47195987149</v>
+        <v>13198.60456213031</v>
       </c>
       <c r="R24">
-        <v>12820.47195987149</v>
+        <v>118787.4410591728</v>
       </c>
       <c r="S24">
-        <v>0.002441336515904604</v>
+        <v>0.002245893550591919</v>
       </c>
       <c r="T24">
-        <v>0.002441336515904604</v>
+        <v>0.00224589355059192</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H25">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I25">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J25">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>9940.717923535394</v>
+        <v>10294.58175404927</v>
       </c>
       <c r="R25">
-        <v>9940.717923535394</v>
+        <v>92651.23578644343</v>
       </c>
       <c r="S25">
-        <v>0.001892959770669599</v>
+        <v>0.001751740849468163</v>
       </c>
       <c r="T25">
-        <v>0.001892959770669599</v>
+        <v>0.001751740849468163</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H26">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I26">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J26">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>6571.789603073295</v>
+        <v>7071.694516828271</v>
       </c>
       <c r="R26">
-        <v>6571.789603073295</v>
+        <v>63645.25065145444</v>
       </c>
       <c r="S26">
-        <v>0.00125143208323712</v>
+        <v>0.001203329718102972</v>
       </c>
       <c r="T26">
-        <v>0.00125143208323712</v>
+        <v>0.001203329718102972</v>
       </c>
     </row>
   </sheetData>
